--- a/Optimal_Power_Flow/Distribution/Matpower/Snapshot/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/Matpower/Snapshot/Output_data/Dual/33bus_MINLP_Opt_problem_Dual_Variables.xlsx
@@ -8,13 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Constraint_list" sheetId="1" r:id="rId1"/>
+    <sheet name="Line_Status_con" sheetId="2" r:id="rId2"/>
+    <sheet name="P_bal_con" sheetId="3" r:id="rId3"/>
+    <sheet name="Q_bal_con" sheetId="4" r:id="rId4"/>
+    <sheet name="P_gen_min_con" sheetId="5" r:id="rId5"/>
+    <sheet name="P_gen_max_con" sheetId="6" r:id="rId6"/>
+    <sheet name="Q_gen_min_con" sheetId="7" r:id="rId7"/>
+    <sheet name="Q_gen_max_con" sheetId="8" r:id="rId8"/>
+    <sheet name="V_limits_con" sheetId="9" r:id="rId9"/>
+    <sheet name="Slack_con" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="14">
   <si>
     <t>Constraint_name</t>
   </si>
@@ -23,6 +32,39 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Line_Status_con</t>
+  </si>
+  <si>
+    <t>Index: Buses</t>
+  </si>
+  <si>
+    <t>P_bal_con</t>
+  </si>
+  <si>
+    <t>Q_bal_con</t>
+  </si>
+  <si>
+    <t>Index: Gens</t>
+  </si>
+  <si>
+    <t>P_gen_min_con</t>
+  </si>
+  <si>
+    <t>P_gen_max_con</t>
+  </si>
+  <si>
+    <t>Q_gen_min_con</t>
+  </si>
+  <si>
+    <t>Q_gen_max_con</t>
+  </si>
+  <si>
+    <t>V_limits_con</t>
+  </si>
+  <si>
+    <t>Slack_con</t>
   </si>
 </sst>
 </file>
@@ -400,4 +442,3587 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>